--- a/data/trans_camb/P57_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 18,55</t>
+          <t>7,12; 17,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 18,53</t>
+          <t>9,33; 18,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,09</t>
+          <t>9,93; 17,02</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,35; 67,21</t>
+          <t>21,8; 65,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 78,21</t>
+          <t>32,73; 77,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,96; 64,82</t>
+          <t>32,6; 63,69</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,58; 49,54</t>
+          <t>18,1; 48,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 19,84</t>
+          <t>12,1; 19,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 40,67</t>
+          <t>17,01; 40,63</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,48; 184,7</t>
+          <t>60,33; 179,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,6; 81,41</t>
+          <t>42,31; 83,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,67; 148,55</t>
+          <t>59,86; 152,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,62; 30,3</t>
+          <t>19,13; 29,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 23,13</t>
+          <t>-8,03; 23,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 24,11</t>
+          <t>-1,3; 24,5</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>55,71; 109,37</t>
+          <t>59,16; 111,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 92,26</t>
+          <t>-28,96; 92,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 88,2</t>
+          <t>-4,32; 89,96</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 14,29</t>
+          <t>5,01; 14,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 11,67</t>
+          <t>-0,45; 11,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,55</t>
+          <t>3,75; 11,51</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,33; 48,6</t>
+          <t>14,69; 47,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 46,29</t>
+          <t>0,26; 46,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 41,44</t>
+          <t>13,01; 41,82</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,54; 31,53</t>
+          <t>15,8; 32,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,07</t>
+          <t>4,86; 15,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,52</t>
+          <t>12,05; 22,01</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>50,51; 106,45</t>
+          <t>51,38; 107,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,45; 57,71</t>
+          <t>18,02; 58,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>42,09; 77,01</t>
+          <t>42,34; 79,69</t>
         </is>
       </c>
     </row>
